--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,6 +501,188 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>95</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
